--- a/Vale SA Stock Analysis (1).xlsx
+++ b/Vale SA Stock Analysis (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagarmarathe/Desktop/vale/docs project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DMSB_Northeastern\Projects\Equity_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293019CB-CC16-5D40-828F-90E5F4DEF011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F68CAC-CF14-47AF-BAD3-717A0B951385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production &amp; revenueforecast" sheetId="3" r:id="rId1"/>
@@ -691,9 +691,6 @@
     <t>Production Forecast</t>
   </si>
   <si>
-    <t>Minerals production growth forecast</t>
-  </si>
-  <si>
     <t>Iron ore solutions</t>
   </si>
   <si>
@@ -1355,6 +1352,9 @@
   </si>
   <si>
     <t>Volume Growth</t>
+  </si>
+  <si>
+    <t>Minerals production growth</t>
   </si>
 </sst>
 </file>
@@ -1362,31 +1362,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="25">
-    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00_);[Red]\(&quot;£&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="169" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.00%;\(0.00%\)"/>
-    <numFmt numFmtId="174" formatCode="0.0%_);\(0.0%\);0.0%_);@_)"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\);&quot;$&quot;#,##0.0_);@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0\ &quot;d&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.0\x_);&quot;NM&quot;_);0.0\x_);@_)"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.0_)\ ;\(&quot;$&quot;#,##0.0\)\ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="184" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="185" formatCode="0.0\ &quot;y&quot;"/>
-    <numFmt numFmtId="186" formatCode="0\ &quot;y&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;Growth&quot;"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00_);[Red]\(&quot;£&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.00%;\(0.00%\)"/>
+    <numFmt numFmtId="171" formatCode="0.0%_);\(0.0%\);0.0%_);@_)"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\);&quot;$&quot;#,##0.0_);@_)"/>
+    <numFmt numFmtId="174" formatCode="0.0\ &quot;d&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.0\x_);&quot;NM&quot;_);0.0\x_);@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0_)\ ;\(&quot;$&quot;#,##0.0\)\ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="181" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.0\ &quot;y&quot;"/>
+    <numFmt numFmtId="183" formatCode="0\ &quot;y&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Growth&quot;"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -2389,14 +2389,14 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2405,110 +2405,110 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2519,34 +2519,34 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,36 +2558,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -2609,7 +2609,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -2620,11 +2620,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="36" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="36" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2638,16 +2638,16 @@
     <xf numFmtId="2" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,48 +2659,48 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="39" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="41" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="41" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="37" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -2726,16 +2726,16 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="43" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="43" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="43" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="43" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2743,7 +2743,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2794,9 +2794,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2804,27 +2804,27 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="44" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2836,8 +2836,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2868,20 +2868,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2890,15 +2890,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2914,7 +2914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2922,45 +2922,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="29" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="29" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2984,12 +2984,12 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3018,20 +3018,20 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="39" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3039,15 +3039,15 @@
     </xf>
     <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="178" fontId="55" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="55" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3060,10 +3060,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3102,28 +3102,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3133,6 +3133,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3145,12 +3151,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3167,7 +3167,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="t" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3186,7 +3186,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3281,7 +3281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>percentage</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4103,39 +4103,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet1!$B$24:$B$32</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>China</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Brazil</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Europe ( except Germany)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Asia ( except Japan &amp; China)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Japan</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Middle East</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Germany</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4144,31 +4145,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.300000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4303,7 +4304,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4462,25 +4463,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2025</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2030</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,25 +4493,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2162162162162172E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1086448598130847E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7101449275362306E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4166666666666729E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1636363636363645E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.942307692307697E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7464387464387412E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,7 +4532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Transition Minerals</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4613,25 +4614,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2025</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2030</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4643,25 +4644,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.3094245204336953E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7142857142857126E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1052631578947368E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4090909090909081E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8333333333333321E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4358974358974363E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5714285714285719E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,25 +4757,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2025</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2030</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4786,25 +4787,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5256407366499124E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8229305740987973E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.815408085430967E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8257575757575804E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.996969696969696E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3782051282051333E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3178673178673131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,7 +4989,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5637,7 +5638,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5794,226 +5795,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>43101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43313</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43344</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43374</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43405</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43435</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43497</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43525</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43556</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43586</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43647</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43678</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43709</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43739</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43770</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43891</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43922</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44044</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44075</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44166</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44197</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44228</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44317</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44348</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44409</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44531</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44593</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44621</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44682</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44713</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44774</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44805</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44835</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44866</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44896</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44927</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44958</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>45017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>45078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>45139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45170</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45231</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>45292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>45323</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6025,226 +6032,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>75.7826086956522</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.650000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.318181818181799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.630434782608702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.857142857142904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.045454545454504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.021739130434796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.021739130434796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.295454545454504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.904761904761898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.071428571428598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.76086956521701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109.55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119.586956521739</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92.261904761904802</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88.586956521739097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82.904761904761898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.977272727272705</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.2173913043478</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.659090909090907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>103.34090909090899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>108.02173913043499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>120.071428571429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>123</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>119.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>123.52380952381</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>153.065217391304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>166.73809523809501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>162.32499999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>166.73913043478299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>178.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>202.857142857143</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>215.81578947368399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>214.34090909090901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>162.09090909090901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>113.71875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>114.47619047619</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90.131578947368396</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>110.45652173913</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>133.04545454545499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>139.69999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>147.34782608695701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>146.666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>131.09090909090901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>131.04545454545499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>109.04761904761899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>109.065217391304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.84090909090899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.619047619047606</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>94.568181818181799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>111.40909090909101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122.431818181818</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>127.075</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>127.97826086956501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>117.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>104.52173913043499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>113.09090909090899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>113.97619047619</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>109.60869565217401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>120.428571428571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>118.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>131.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>137.54761904761901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>136.58695652173901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>125.928571428571</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6460,7 +6473,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6997,7 +7010,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7504,7 +7517,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8011,7 +8024,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8524,7 +8537,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14857,10 +14870,10 @@
     <dgm:cxn modelId="{8C014637-013E-8340-ABEE-794D6FA057E4}" type="presOf" srcId="{C127FFE0-7DA0-F447-B868-A70CE8A78D91}" destId="{4DB8DCD2-BA13-F54F-B4DF-EC4C95948F70}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{54576F37-4EF0-0342-AE4D-AF3AE0944A0E}" type="presOf" srcId="{D001597F-BAFC-0946-8B74-9A38BA98DFC9}" destId="{496377A0-5D52-0E42-BBD7-6980F45FBC50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{CF7EFF3C-6681-924F-8640-30ADC0074C8D}" srcId="{4B3F3D12-A940-E744-A6EB-245F7A141D53}" destId="{B93F2EFA-FAA0-7049-AFA7-A1A9D7C42618}" srcOrd="0" destOrd="0" parTransId="{F6EAA074-3FC8-CE4B-90EE-C1619F9C5B70}" sibTransId="{8BBA4B70-08EB-4141-9FED-36E870961481}"/>
+    <dgm:cxn modelId="{6022C162-FD1B-6140-86F9-DBD064C3E189}" type="presOf" srcId="{C74E8855-8C9D-F04C-B122-048C6D244D75}" destId="{AE83104B-934C-F141-B41F-E31466A41B8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{89CFE544-B5A7-1C40-8D48-657A9BF510C1}" srcId="{7B77E5E6-E98D-2B43-91BC-05769AF10A4A}" destId="{DE6C055E-5084-0B40-BECB-290535090C69}" srcOrd="2" destOrd="0" parTransId="{A0F7932C-49EC-924A-BAA0-36A04CC35900}" sibTransId="{CB309853-04B0-FC4F-A3F3-E0212CCD3378}"/>
     <dgm:cxn modelId="{A8B06445-E928-D94A-8F0E-93A4FE41B5B4}" type="presOf" srcId="{A0F7932C-49EC-924A-BAA0-36A04CC35900}" destId="{231BBB20-8494-C649-9550-FB76A19BCC07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{D5CFBE54-A922-3B41-B683-56FF4242D01E}" type="presOf" srcId="{354D8682-C6A7-8C48-B9F7-93BF23D9519C}" destId="{65D9A8D1-62D3-7D44-AF79-A52854D0F8B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
-    <dgm:cxn modelId="{6022C162-FD1B-6140-86F9-DBD064C3E189}" type="presOf" srcId="{C74E8855-8C9D-F04C-B122-048C6D244D75}" destId="{AE83104B-934C-F141-B41F-E31466A41B8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{B7D8E676-F1E7-584A-A38B-3112E509A75B}" type="presOf" srcId="{442216AE-ECCA-E74D-95AE-7056B400F486}" destId="{E2EC1474-13BB-B24C-8234-A75ECC5D6955}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{CE22B192-12B7-7348-A33B-7D567803FB92}" type="presOf" srcId="{9D21AE1F-B349-624E-BBBA-AAD8555A6220}" destId="{EC816274-E0E0-A740-90B2-82416D7D1036}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy1"/>
     <dgm:cxn modelId="{02AEA69E-8F47-514B-B5D4-80AA9245775F}" srcId="{7B77E5E6-E98D-2B43-91BC-05769AF10A4A}" destId="{4B3F3D12-A940-E744-A6EB-245F7A141D53}" srcOrd="1" destOrd="0" parTransId="{354D8682-C6A7-8C48-B9F7-93BF23D9519C}" sibTransId="{C7B358A3-EFF2-2D4C-A4AF-5261878F5751}"/>
@@ -18358,189 +18371,11 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="17">
-          <cell r="E17">
-            <v>2024</v>
-          </cell>
-          <cell r="F17">
-            <v>2025</v>
-          </cell>
-          <cell r="G17">
-            <v>2026</v>
-          </cell>
-          <cell r="H17">
-            <v>2027</v>
-          </cell>
-          <cell r="I17">
-            <v>2028</v>
-          </cell>
-          <cell r="J17">
-            <v>2029</v>
-          </cell>
-          <cell r="K17">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>1.2162162162162172E-2</v>
-          </cell>
-          <cell r="F18">
-            <v>7.1086448598130847E-2</v>
-          </cell>
-          <cell r="G18">
-            <v>4.7101449275362306E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>4.4166666666666729E-2</v>
-          </cell>
-          <cell r="I18">
-            <v>4.1636363636363645E-2</v>
-          </cell>
-          <cell r="J18">
-            <v>3.942307692307697E-2</v>
-          </cell>
-          <cell r="K18">
-            <v>3.7464387464387412E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Energy Transition Minerals</v>
-          </cell>
-          <cell r="E19">
-            <v>1.3094245204336953E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>1.7142857142857126E-2</v>
-          </cell>
-          <cell r="G19">
-            <v>2.1052631578947368E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>3.4090909090909081E-2</v>
-          </cell>
-          <cell r="I19">
-            <v>2.8333333333333321E-2</v>
-          </cell>
-          <cell r="J19">
-            <v>2.4358974358974363E-2</v>
-          </cell>
-          <cell r="K19">
-            <v>3.5714285714285719E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>2.5256407366499124E-2</v>
-          </cell>
-          <cell r="F20">
-            <v>8.8229305740987973E-2</v>
-          </cell>
-          <cell r="G20">
-            <v>6.815408085430967E-2</v>
-          </cell>
-          <cell r="H20">
-            <v>7.8257575757575804E-2</v>
-          </cell>
-          <cell r="I20">
-            <v>6.996969696969696E-2</v>
-          </cell>
-          <cell r="J20">
-            <v>6.3782051282051333E-2</v>
-          </cell>
-          <cell r="K20">
-            <v>7.3178673178673131E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>percentage</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>China</v>
-          </cell>
-          <cell r="C24">
-            <v>0.51</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Brazil</v>
-          </cell>
-          <cell r="C25">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Europe ( except Germany)</v>
-          </cell>
-          <cell r="C26">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Asia ( except Japan &amp; China)</v>
-          </cell>
-          <cell r="C27">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Japan</v>
-          </cell>
-          <cell r="C28">
-            <v>7.6999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>Middle East</v>
-          </cell>
-          <cell r="C29">
-            <v>5.7000000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>USA</v>
-          </cell>
-          <cell r="C30">
-            <v>0.04</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>Germany</v>
-          </cell>
-          <cell r="C31">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>Others</v>
-          </cell>
-          <cell r="C32">
-            <v>2.300000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -18549,609 +18384,11 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="price"/>
       <sheetName val="FRED Graph"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="A8">
-            <v>43101</v>
-          </cell>
-          <cell r="B8">
-            <v>75.7826086956522</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>43132</v>
-          </cell>
-          <cell r="B9">
-            <v>77.650000000000006</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>43160</v>
-          </cell>
-          <cell r="B10">
-            <v>71.318181818181799</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>43191</v>
-          </cell>
-          <cell r="B11">
-            <v>66.3333333333333</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>43221</v>
-          </cell>
-          <cell r="B12">
-            <v>66.630434782608702</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>43252</v>
-          </cell>
-          <cell r="B13">
-            <v>66.857142857142904</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>43282</v>
-          </cell>
-          <cell r="B14">
-            <v>67.045454545454504</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>43313</v>
-          </cell>
-          <cell r="B15">
-            <v>68.021739130434796</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>43344</v>
-          </cell>
-          <cell r="B16">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>43374</v>
-          </cell>
-          <cell r="B17">
-            <v>72.021739130434796</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>43405</v>
-          </cell>
-          <cell r="B18">
-            <v>72.295454545454504</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>43435</v>
-          </cell>
-          <cell r="B19">
-            <v>68.904761904761898</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>43466</v>
-          </cell>
-          <cell r="B20">
-            <v>75.2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>43497</v>
-          </cell>
-          <cell r="B21">
-            <v>87.59</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>43525</v>
-          </cell>
-          <cell r="B22">
-            <v>87.071428571428598</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>43556</v>
-          </cell>
-          <cell r="B23">
-            <v>94.5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>43586</v>
-          </cell>
-          <cell r="B24">
-            <v>101.76086956521701</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>43617</v>
-          </cell>
-          <cell r="B25">
-            <v>109.55</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>43647</v>
-          </cell>
-          <cell r="B26">
-            <v>119.586956521739</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>43678</v>
-          </cell>
-          <cell r="B27">
-            <v>93.5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>43709</v>
-          </cell>
-          <cell r="B28">
-            <v>92.261904761904802</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>43739</v>
-          </cell>
-          <cell r="B29">
-            <v>88.586956521739097</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>43770</v>
-          </cell>
-          <cell r="B30">
-            <v>82.904761904761898</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>43800</v>
-          </cell>
-          <cell r="B31">
-            <v>90.977272727272705</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>43831</v>
-          </cell>
-          <cell r="B32">
-            <v>95.2173913043478</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>43862</v>
-          </cell>
-          <cell r="B33">
-            <v>87.625</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>43891</v>
-          </cell>
-          <cell r="B34">
-            <v>88.659090909090907</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>43922</v>
-          </cell>
-          <cell r="B35">
-            <v>83.75</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>43952</v>
-          </cell>
-          <cell r="B36">
-            <v>91.3333333333333</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>43983</v>
-          </cell>
-          <cell r="B37">
-            <v>103.34090909090899</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>44013</v>
-          </cell>
-          <cell r="B38">
-            <v>108.02173913043499</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>44044</v>
-          </cell>
-          <cell r="B39">
-            <v>120.071428571429</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>44075</v>
-          </cell>
-          <cell r="B40">
-            <v>123</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>44105</v>
-          </cell>
-          <cell r="B41">
-            <v>119.25</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>44136</v>
-          </cell>
-          <cell r="B42">
-            <v>123.52380952381</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>44166</v>
-          </cell>
-          <cell r="B43">
-            <v>153.065217391304</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>44197</v>
-          </cell>
-          <cell r="B44">
-            <v>166.73809523809501</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44228</v>
-          </cell>
-          <cell r="B45">
-            <v>162.32499999999999</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>44256</v>
-          </cell>
-          <cell r="B46">
-            <v>166.73913043478299</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>44287</v>
-          </cell>
-          <cell r="B47">
-            <v>178.25</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>44317</v>
-          </cell>
-          <cell r="B48">
-            <v>202.857142857143</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>44348</v>
-          </cell>
-          <cell r="B49">
-            <v>215.81578947368399</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>44378</v>
-          </cell>
-          <cell r="B50">
-            <v>214.34090909090901</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>44409</v>
-          </cell>
-          <cell r="B51">
-            <v>162.09090909090901</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>44440</v>
-          </cell>
-          <cell r="B52">
-            <v>113.71875</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>44470</v>
-          </cell>
-          <cell r="B53">
-            <v>114.47619047619</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>44501</v>
-          </cell>
-          <cell r="B54">
-            <v>90.131578947368396</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>44531</v>
-          </cell>
-          <cell r="B55">
-            <v>110.45652173913</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>44562</v>
-          </cell>
-          <cell r="B56">
-            <v>133.04545454545499</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>44593</v>
-          </cell>
-          <cell r="B57">
-            <v>139.69999999999999</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>44621</v>
-          </cell>
-          <cell r="B58">
-            <v>147.34782608695701</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>44652</v>
-          </cell>
-          <cell r="B59">
-            <v>146.666666666667</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>44682</v>
-          </cell>
-          <cell r="B60">
-            <v>131.09090909090901</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>44713</v>
-          </cell>
-          <cell r="B61">
-            <v>131.04545454545499</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>44743</v>
-          </cell>
-          <cell r="B62">
-            <v>109.04761904761899</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>44774</v>
-          </cell>
-          <cell r="B63">
-            <v>109.065217391304</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>44805</v>
-          </cell>
-          <cell r="B64">
-            <v>100.84090909090899</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>44835</v>
-          </cell>
-          <cell r="B65">
-            <v>94.619047619047606</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>44866</v>
-          </cell>
-          <cell r="B66">
-            <v>94.568181818181799</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>44896</v>
-          </cell>
-          <cell r="B67">
-            <v>111.40909090909101</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>44927</v>
-          </cell>
-          <cell r="B68">
-            <v>122.431818181818</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>44958</v>
-          </cell>
-          <cell r="B69">
-            <v>127.075</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>44986</v>
-          </cell>
-          <cell r="B70">
-            <v>127.97826086956501</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>45017</v>
-          </cell>
-          <cell r="B71">
-            <v>117.125</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>45047</v>
-          </cell>
-          <cell r="B72">
-            <v>104.52173913043499</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>45078</v>
-          </cell>
-          <cell r="B73">
-            <v>113.09090909090899</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>45108</v>
-          </cell>
-          <cell r="B74">
-            <v>113.97619047619</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>45139</v>
-          </cell>
-          <cell r="B75">
-            <v>109.60869565217401</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>45170</v>
-          </cell>
-          <cell r="B76">
-            <v>120.428571428571</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>45200</v>
-          </cell>
-          <cell r="B77">
-            <v>118.75</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>45231</v>
-          </cell>
-          <cell r="B78">
-            <v>131.25</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>45261</v>
-          </cell>
-          <cell r="B79">
-            <v>137.54761904761901</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>45292</v>
-          </cell>
-          <cell r="B80">
-            <v>136.58695652173901</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>45323</v>
-          </cell>
-          <cell r="B81">
-            <v>125.928571428571</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19417,11 +18654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E83FA4-52FD-744C-B3ED-26E43E400353}">
   <dimension ref="B2:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
@@ -19429,14 +18666,14 @@
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="24">
+    <row r="2" spans="2:21" ht="23.5">
       <c r="G2" s="219" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="28">
+    <row r="5" spans="2:21">
       <c r="C5" s="220" t="s">
-        <v>200</v>
+        <v>421</v>
       </c>
       <c r="D5" s="206">
         <v>2022</v>
@@ -19476,10 +18713,10 @@
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="222" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="206" t="s">
         <v>201</v>
-      </c>
-      <c r="C6" s="206" t="s">
-        <v>202</v>
       </c>
       <c r="D6" s="206">
         <v>308</v>
@@ -19509,10 +18746,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="16">
+    <row r="7" spans="2:21" ht="15.5">
       <c r="B7" s="222"/>
       <c r="C7" s="206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="206"/>
       <c r="E7" s="223">
@@ -19578,7 +18815,7 @@
     <row r="8" spans="2:21">
       <c r="B8" s="222"/>
       <c r="C8" s="206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="206">
         <v>33</v>
@@ -19608,7 +18845,7 @@
         <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O8" s="174">
         <v>0</v>
@@ -19632,10 +18869,10 @@
         <v>3.7037037037036979E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="16">
+    <row r="9" spans="2:21" ht="15.5">
       <c r="B9" s="222"/>
       <c r="C9" s="206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="206"/>
       <c r="E9" s="225">
@@ -19671,7 +18908,7 @@
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O9" s="174">
         <v>7.0336391437308965E-2</v>
@@ -19695,12 +18932,12 @@
         <v>0.28571428571428581</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="14">
+    <row r="10" spans="2:21">
       <c r="B10" s="227" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="206" t="s">
         <v>205</v>
-      </c>
-      <c r="C10" s="206" t="s">
-        <v>206</v>
       </c>
       <c r="D10" s="206">
         <v>253</v>
@@ -19730,7 +18967,7 @@
         <v>900</v>
       </c>
       <c r="N10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O10" s="174">
         <v>6.0606060606060552E-2</v>
@@ -19754,12 +18991,12 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="16">
+    <row r="11" spans="2:21" ht="15.5">
       <c r="B11" s="228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="206"/>
       <c r="E11" s="223">
@@ -19795,7 +19032,7 @@
         <v>0.28571428571428581</v>
       </c>
       <c r="N11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O11" s="174">
         <v>2.1982846065414886E-2</v>
@@ -19822,7 +19059,7 @@
     <row r="12" spans="2:21">
       <c r="B12" s="214"/>
       <c r="C12" s="206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="206">
         <v>179</v>
@@ -19852,10 +19089,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="16">
+    <row r="13" spans="2:21" ht="15.5">
       <c r="B13" s="214"/>
       <c r="C13" s="229" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="206"/>
       <c r="E13" s="223">
@@ -19893,10 +19130,10 @@
     </row>
     <row r="16" spans="2:21">
       <c r="C16" s="206" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="206" t="s">
         <v>209</v>
-      </c>
-      <c r="D16" s="206" t="s">
-        <v>210</v>
       </c>
       <c r="E16" s="206">
         <v>2023</v>
@@ -19931,13 +19168,13 @@
     </row>
     <row r="17" spans="3:15">
       <c r="C17" s="206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="230">
         <v>0.85</v>
       </c>
       <c r="E17" s="231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" s="232">
         <f>(0.7*F7)+(0.15*F9)</f>
@@ -19970,13 +19207,13 @@
     </row>
     <row r="18" spans="3:15">
       <c r="C18" s="206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="230">
         <v>0.15</v>
       </c>
       <c r="E18" s="231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="232">
         <f>$D$18*(AVERAGE(F11,F13))</f>
@@ -20007,15 +19244,15 @@
         <v>2.6785714285714291E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="16">
+    <row r="19" spans="3:15" ht="15.5">
       <c r="C19" s="206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="230">
         <v>1</v>
       </c>
       <c r="E19" s="231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="233">
         <f>SUM(F17:F18)</f>
@@ -20049,7 +19286,7 @@
     </row>
     <row r="21" spans="3:15">
       <c r="J21" s="214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K21" s="214"/>
       <c r="L21" s="289">
@@ -20059,91 +19296,91 @@
     </row>
     <row r="22" spans="3:15">
       <c r="C22" s="206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="3:15">
       <c r="C23" s="206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="269">
         <v>51</v>
       </c>
       <c r="H23" s="235" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="439" t="s">
         <v>230</v>
-      </c>
-      <c r="I23" s="439" t="s">
-        <v>231</v>
       </c>
       <c r="J23" s="439"/>
       <c r="K23" s="439" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L23" s="439"/>
     </row>
     <row r="24" spans="3:15">
       <c r="C24" s="206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="270">
         <v>9</v>
       </c>
       <c r="H24" s="237" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I24" s="440">
         <v>0.7</v>
       </c>
       <c r="J24" s="441"/>
       <c r="K24" s="447" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L24" s="443"/>
     </row>
     <row r="25" spans="3:15">
       <c r="C25" s="235" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D25" s="270">
         <v>9</v>
       </c>
       <c r="H25" s="237" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I25" s="442">
         <v>0.5</v>
       </c>
       <c r="J25" s="443"/>
       <c r="K25" s="443" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L25" s="443"/>
     </row>
     <row r="26" spans="3:15">
       <c r="C26" s="235" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" s="270">
         <v>8</v>
       </c>
       <c r="H26" s="238" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I26" s="444">
         <v>0.65</v>
       </c>
       <c r="J26" s="445"/>
       <c r="K26" s="446" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L26" s="445"/>
     </row>
     <row r="27" spans="3:15">
       <c r="C27" s="206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="270">
         <v>8</v>
@@ -20151,7 +19388,7 @@
     </row>
     <row r="28" spans="3:15">
       <c r="C28" s="206" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="270">
         <v>6</v>
@@ -20159,7 +19396,7 @@
     </row>
     <row r="29" spans="3:15">
       <c r="C29" s="206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" s="270">
         <v>4</v>
@@ -20167,7 +19404,7 @@
     </row>
     <row r="30" spans="3:15">
       <c r="C30" s="206" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="270">
         <v>3</v>
@@ -20175,7 +19412,7 @@
     </row>
     <row r="31" spans="3:15">
       <c r="C31" s="206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="270">
         <f>100 - SUM(D23:D30)</f>
@@ -20213,7 +19450,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="246" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="240">
         <v>5128</v>
@@ -20239,7 +19476,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="245" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" s="242"/>
       <c r="D36" s="243">
@@ -20267,7 +19504,7 @@
         <v>1.4953271028037384E-2</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="19">
+    <row r="62" spans="3:9" ht="18.5">
       <c r="C62" s="234"/>
     </row>
     <row r="64" spans="3:9">
@@ -20314,7 +19551,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="24.796875" defaultRowHeight="13"/>
   <cols>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="30" bestFit="1" customWidth="1"/>
@@ -20384,33 +19621,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
         <v>293</v>
-      </c>
-      <c r="B4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20585,7 +19822,7 @@
       <c r="B28" s="273">
         <v>92.261904761904802</v>
       </c>
-      <c r="Q28" s="448"/>
+      <c r="Q28" s="450"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="272">
@@ -20594,7 +19831,7 @@
       <c r="B29" s="273">
         <v>88.586956521739097</v>
       </c>
-      <c r="Q29" s="448"/>
+      <c r="Q29" s="450"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="272">
@@ -20676,32 +19913,32 @@
         <v>120.071428571429</v>
       </c>
       <c r="E39" s="276" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F39" s="268">
         <f>AVERAGE(B20:B81)</f>
         <v>120.53280315832451</v>
       </c>
       <c r="G39" s="276" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" s="277" t="s">
+        <v>255</v>
+      </c>
+      <c r="I39" s="277" t="s">
         <v>298</v>
       </c>
-      <c r="H39" s="277" t="s">
-        <v>256</v>
-      </c>
-      <c r="I39" s="277" t="s">
+      <c r="J39" s="277" t="s">
         <v>299</v>
       </c>
-      <c r="J39" s="277" t="s">
+      <c r="K39" s="277" t="s">
         <v>300</v>
       </c>
-      <c r="K39" s="277" t="s">
+      <c r="L39" s="277" t="s">
         <v>301</v>
       </c>
-      <c r="L39" s="277" t="s">
+      <c r="M39" s="277" t="s">
         <v>302</v>
-      </c>
-      <c r="M39" s="277" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -20727,7 +19964,7 @@
         <v>119.25</v>
       </c>
       <c r="E41" s="278" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F41" s="215">
         <f>AVERAGE(B20:B31)</f>
@@ -20757,11 +19994,11 @@
       <c r="N41" s="34"/>
       <c r="R41" s="449"/>
       <c r="S41" s="449"/>
-      <c r="T41" s="450"/>
-      <c r="U41" s="450"/>
-      <c r="V41" s="450"/>
-      <c r="W41" s="450"/>
-      <c r="X41" s="450"/>
+      <c r="T41" s="448"/>
+      <c r="U41" s="448"/>
+      <c r="V41" s="448"/>
+      <c r="W41" s="448"/>
+      <c r="X41" s="448"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="272">
@@ -20771,7 +20008,7 @@
         <v>123.52380952381</v>
       </c>
       <c r="E42" s="278" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F42" s="215">
         <f>AVERAGE(B32:B43)</f>
@@ -20805,11 +20042,11 @@
       <c r="N42" s="34"/>
       <c r="R42" s="449"/>
       <c r="S42" s="449"/>
-      <c r="T42" s="450"/>
-      <c r="U42" s="450"/>
-      <c r="V42" s="450"/>
-      <c r="W42" s="450"/>
-      <c r="X42" s="450"/>
+      <c r="T42" s="448"/>
+      <c r="U42" s="448"/>
+      <c r="V42" s="448"/>
+      <c r="W42" s="448"/>
+      <c r="X42" s="448"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="272">
@@ -20819,7 +20056,7 @@
         <v>153.065217391304</v>
       </c>
       <c r="E43" s="278" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" s="215">
         <f>AVERAGE(B44:B55)</f>
@@ -20860,7 +20097,7 @@
         <v>166.73809523809501</v>
       </c>
       <c r="E44" s="278" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F44" s="215">
         <f>AVERAGE(B56:B67)</f>
@@ -20901,7 +20138,7 @@
         <v>162.32499999999999</v>
       </c>
       <c r="E45" s="211" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F45" s="283">
         <f>AVERAGE(B68:B79)</f>
@@ -20963,7 +20200,7 @@
         <v>202.857142857143</v>
       </c>
       <c r="E48" s="285" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F48" s="166"/>
       <c r="G48" s="166"/>
@@ -21028,11 +20265,11 @@
       </c>
       <c r="Q53" s="449"/>
       <c r="R53" s="449"/>
-      <c r="S53" s="450"/>
-      <c r="T53" s="450"/>
-      <c r="U53" s="450"/>
-      <c r="V53" s="450"/>
-      <c r="W53" s="450"/>
+      <c r="S53" s="448"/>
+      <c r="T53" s="448"/>
+      <c r="U53" s="448"/>
+      <c r="V53" s="448"/>
+      <c r="W53" s="448"/>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="272">
@@ -21043,13 +20280,13 @@
       </c>
       <c r="Q54" s="449"/>
       <c r="R54" s="449"/>
-      <c r="S54" s="450"/>
-      <c r="T54" s="450"/>
-      <c r="U54" s="450"/>
-      <c r="V54" s="450"/>
-      <c r="W54" s="450"/>
-    </row>
-    <row r="55" spans="1:26" ht="16">
+      <c r="S54" s="448"/>
+      <c r="T54" s="448"/>
+      <c r="U54" s="448"/>
+      <c r="V54" s="448"/>
+      <c r="W54" s="448"/>
+    </row>
+    <row r="55" spans="1:26" ht="15.5">
       <c r="A55" s="272">
         <v>44531</v>
       </c>
@@ -21057,9 +20294,9 @@
         <v>110.45652173913</v>
       </c>
       <c r="H55" s="281"/>
-      <c r="X55" s="450"/>
-      <c r="Y55" s="450"/>
-      <c r="Z55" s="450">
+      <c r="X55" s="448"/>
+      <c r="Y55" s="448"/>
+      <c r="Z55" s="448">
         <v>-29446</v>
       </c>
     </row>
@@ -21072,13 +20309,13 @@
       </c>
       <c r="K56" s="449"/>
       <c r="L56" s="449"/>
-      <c r="M56" s="450"/>
-      <c r="N56" s="450"/>
-      <c r="O56" s="450"/>
-      <c r="P56" s="450"/>
-      <c r="X56" s="450"/>
-      <c r="Y56" s="450"/>
-      <c r="Z56" s="450"/>
+      <c r="M56" s="448"/>
+      <c r="N56" s="448"/>
+      <c r="O56" s="448"/>
+      <c r="P56" s="448"/>
+      <c r="X56" s="448"/>
+      <c r="Y56" s="448"/>
+      <c r="Z56" s="448"/>
     </row>
     <row r="57" spans="1:26" ht="13" customHeight="1">
       <c r="A57" s="272">
@@ -21089,10 +20326,10 @@
       </c>
       <c r="K57" s="449"/>
       <c r="L57" s="449"/>
-      <c r="M57" s="450"/>
-      <c r="N57" s="450"/>
-      <c r="O57" s="450"/>
-      <c r="P57" s="450"/>
+      <c r="M57" s="448"/>
+      <c r="N57" s="448"/>
+      <c r="O57" s="448"/>
+      <c r="P57" s="448"/>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="272">
@@ -21288,15 +20525,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
     <mergeCell ref="W41:W42"/>
     <mergeCell ref="X41:X42"/>
     <mergeCell ref="P45:P46"/>
@@ -21309,11 +20542,15 @@
     <mergeCell ref="V53:V54"/>
     <mergeCell ref="V41:V42"/>
     <mergeCell ref="W53:W54"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21329,7 +20566,7 @@
       <selection activeCell="L228" sqref="L228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.3984375" style="2"/>
     <col min="2" max="2" width="30.19921875" style="2" customWidth="1"/>
@@ -21347,7 +20584,7 @@
     <col min="17" max="16384" width="9.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" s="1" customFormat="1" ht="18">
+    <row r="3" spans="2:20" s="1" customFormat="1" ht="17.5">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -22436,7 +21673,7 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:12" ht="18">
+    <row r="44" spans="2:12" ht="17.5">
       <c r="B44" s="7" t="s">
         <v>20</v>
       </c>
@@ -22575,7 +21812,7 @@
         <v>-34147.614640753854</v>
       </c>
     </row>
-    <row r="51" spans="2:22" ht="16">
+    <row r="51" spans="2:22" ht="14.5">
       <c r="B51" s="9"/>
       <c r="E51" s="26" t="s">
         <v>17</v>
@@ -22686,7 +21923,7 @@
         <v>-2718.2180808560283</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="16">
+    <row r="55" spans="2:22" ht="14.5">
       <c r="B55" s="9"/>
       <c r="E55" s="26" t="s">
         <v>17</v>
@@ -22850,7 +22087,7 @@
     </row>
     <row r="62" spans="2:22">
       <c r="B62" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D62" s="349">
         <v>7</v>
@@ -22884,7 +22121,7 @@
         <v>17.09714285714286</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="16">
+    <row r="63" spans="2:22" ht="14.5">
       <c r="B63" s="9"/>
       <c r="D63" s="349"/>
       <c r="F63" s="26"/>
@@ -22907,7 +22144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:22" ht="16">
+    <row r="64" spans="2:22" ht="14.5">
       <c r="B64" s="9"/>
       <c r="D64" s="349"/>
       <c r="F64" s="26"/>
@@ -22987,7 +22224,7 @@
         <v>-6224.2701173710939</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="16">
+    <row r="67" spans="2:14" ht="14.5">
       <c r="B67" s="13"/>
       <c r="F67" s="26" t="s">
         <v>17</v>
@@ -23179,7 +22416,7 @@
         <v>4133.9566646352096</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="16">
+    <row r="75" spans="2:14" ht="14.5">
       <c r="B75" s="13"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26" t="s">
@@ -23246,7 +22483,7 @@
       <c r="L79" s="59"/>
       <c r="N79" s="174"/>
     </row>
-    <row r="81" spans="2:12" ht="18">
+    <row r="81" spans="2:12" ht="17.5">
       <c r="B81" s="455" t="s">
         <v>37</v>
       </c>
@@ -23627,7 +22864,7 @@
         <v>9560.5245587330301</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="16">
+    <row r="95" spans="2:12" ht="14.5">
       <c r="B95" s="36"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -23840,7 +23077,7 @@
         <v>11925.861676035514</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="16">
+    <row r="102" spans="2:12" ht="14.5">
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="40" t="s">
@@ -24418,7 +23655,7 @@
         <v>0.34924435576248014</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="18">
+    <row r="121" spans="2:14" ht="17.5">
       <c r="B121" s="7" t="s">
         <v>63</v>
       </c>
@@ -24586,7 +23823,7 @@
       </c>
       <c r="N127" s="157"/>
     </row>
-    <row r="128" spans="2:14" ht="16">
+    <row r="128" spans="2:14" ht="14.5">
       <c r="B128" s="9"/>
       <c r="E128" s="52" t="s">
         <v>17</v>
@@ -24805,7 +24042,7 @@
         <v>9560.5245587330301</v>
       </c>
     </row>
-    <row r="135" spans="2:20" ht="16">
+    <row r="135" spans="2:20" ht="14.5">
       <c r="B135" s="9"/>
       <c r="E135" s="19" t="s">
         <v>17</v>
@@ -24925,7 +24162,7 @@
         <v>-57480.777989862094</v>
       </c>
     </row>
-    <row r="140" spans="2:20" ht="16">
+    <row r="140" spans="2:20" ht="14.5">
       <c r="B140" s="9"/>
       <c r="E140" s="19" t="s">
         <v>17</v>
@@ -25033,7 +24270,7 @@
     </row>
     <row r="145" spans="2:23">
       <c r="B145" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E145" s="9">
         <f>0.01*E159</f>
@@ -25068,7 +24305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:23" ht="16">
+    <row r="146" spans="2:23" ht="14.5">
       <c r="E146" s="19" t="s">
         <v>17</v>
       </c>
@@ -25095,7 +24332,7 @@
       </c>
       <c r="P146" s="157"/>
     </row>
-    <row r="147" spans="2:23" ht="16">
+    <row r="147" spans="2:23" ht="14.5">
       <c r="B147" s="9" t="s">
         <v>75</v>
       </c>
@@ -25263,7 +24500,7 @@
         <v>11925.861676035514</v>
       </c>
     </row>
-    <row r="153" spans="2:23" ht="16">
+    <row r="153" spans="2:23" ht="14.5">
       <c r="B153" s="9"/>
       <c r="E153" s="19" t="s">
         <v>17</v>
@@ -25396,7 +24633,7 @@
       </c>
       <c r="N157" s="59"/>
     </row>
-    <row r="158" spans="2:23" ht="16">
+    <row r="158" spans="2:23" ht="14.5">
       <c r="B158" s="9"/>
       <c r="E158" s="19" t="s">
         <v>17</v>
@@ -25492,7 +24729,7 @@
         <v>25284.397445000002</v>
       </c>
     </row>
-    <row r="162" spans="2:19" ht="16">
+    <row r="162" spans="2:19" ht="14.5">
       <c r="B162" s="9"/>
       <c r="E162" s="19" t="s">
         <v>17</v>
@@ -25597,7 +24834,7 @@
         <v>113297.68233710075</v>
       </c>
     </row>
-    <row r="166" spans="2:19" ht="16">
+    <row r="166" spans="2:19" ht="14.5">
       <c r="B166" s="9"/>
       <c r="E166" s="19" t="s">
         <v>17</v>
@@ -25624,7 +24861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="2:19" ht="16">
+    <row r="167" spans="2:19" ht="14.5">
       <c r="B167" s="9" t="s">
         <v>87</v>
       </c>
@@ -25701,7 +24938,7 @@
         <v>4.3127138633280993E-4</v>
       </c>
     </row>
-    <row r="173" spans="2:19" ht="18">
+    <row r="173" spans="2:19" ht="17.5">
       <c r="B173" s="7" t="s">
         <v>96</v>
       </c>
@@ -25880,7 +25117,7 @@
         <v>1273.0908585937505</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="16">
+    <row r="183" spans="2:12" ht="14.5">
       <c r="B183" s="9"/>
       <c r="F183" s="63" t="s">
         <v>17</v>
@@ -25970,7 +25207,7 @@
         <v>-276.22242589035523</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="16">
+    <row r="186" spans="2:12" ht="14.5">
       <c r="B186" s="9"/>
       <c r="F186" s="63" t="s">
         <v>17</v>
@@ -26109,7 +25346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="16">
+    <row r="193" spans="2:15" ht="14.5">
       <c r="B193" s="60"/>
       <c r="F193" s="63" t="s">
         <v>17</v>
@@ -26327,7 +25564,7 @@
     </row>
     <row r="204" spans="2:15">
       <c r="B204" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F204" s="350">
         <f>F61</f>
@@ -26360,7 +25597,7 @@
     </row>
     <row r="205" spans="2:15">
       <c r="B205" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F205" s="350">
         <v>2300</v>
@@ -26386,7 +25623,7 @@
     </row>
     <row r="206" spans="2:15">
       <c r="B206" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F206" s="350">
         <f>-(0.6) *F68</f>
@@ -26417,7 +25654,7 @@
         <v>-7249.4440190557443</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="16">
+    <row r="207" spans="2:15" ht="14.5">
       <c r="B207" s="9"/>
       <c r="F207" s="63" t="s">
         <v>17</v>
@@ -26441,7 +25678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="2:15" ht="16">
+    <row r="208" spans="2:15" ht="14.5">
       <c r="B208" s="9" t="s">
         <v>107</v>
       </c>
@@ -26475,7 +25712,7 @@
       </c>
       <c r="O208" s="63"/>
     </row>
-    <row r="209" spans="2:15" ht="16">
+    <row r="209" spans="2:15" ht="14.5">
       <c r="B209" s="9"/>
       <c r="F209" s="350"/>
       <c r="G209" s="421"/>
@@ -26487,7 +25724,7 @@
       <c r="N209" s="59"/>
       <c r="O209" s="63"/>
     </row>
-    <row r="210" spans="2:15" ht="16">
+    <row r="210" spans="2:15" ht="14.5">
       <c r="B210" s="9"/>
       <c r="F210" s="63"/>
       <c r="G210" s="350"/>
@@ -26546,7 +25783,7 @@
     </row>
     <row r="215" spans="2:15" ht="13" customHeight="1">
       <c r="B215" s="456" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C215" s="456"/>
       <c r="D215" s="456"/>
@@ -26609,7 +25846,7 @@
     </row>
     <row r="219" spans="2:15">
       <c r="B219" s="352" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F219" s="9"/>
     </row>
@@ -26644,7 +25881,7 @@
         <v>81</v>
       </c>
       <c r="C221" s="353" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D221" s="354"/>
       <c r="E221" s="355">
@@ -26721,7 +25958,7 @@
     </row>
     <row r="224" spans="2:15">
       <c r="B224" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C224" s="157"/>
       <c r="D224" s="157"/>
@@ -26745,7 +25982,7 @@
     </row>
     <row r="226" spans="2:12">
       <c r="B226" s="352" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C226" s="302"/>
       <c r="D226" s="302"/>
@@ -26864,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="16">
+    <row r="230" spans="2:12" ht="14.5">
       <c r="B230" s="9"/>
       <c r="C230" s="157"/>
       <c r="D230" s="157"/>
@@ -26893,7 +26130,7 @@
     </row>
     <row r="231" spans="2:12">
       <c r="B231" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C231" s="157"/>
       <c r="D231" s="157"/>
@@ -26937,7 +26174,7 @@
       <c r="I232" s="157"/>
       <c r="J232" s="157"/>
     </row>
-    <row r="233" spans="2:12" ht="16">
+    <row r="233" spans="2:12" ht="14.5">
       <c r="B233" s="9"/>
       <c r="F233" s="19" t="s">
         <v>17</v>
@@ -26963,7 +26200,7 @@
     </row>
     <row r="234" spans="2:12">
       <c r="B234" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F234" s="22">
         <f t="shared" ref="F234:L234" si="97">SUM(F233:F233,F231)</f>
@@ -26996,7 +26233,7 @@
     </row>
     <row r="235" spans="2:12">
       <c r="B235" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F235" s="22">
         <f>MAX(F244-F234,0)</f>
@@ -27027,7 +26264,7 @@
         <v>7606.5203288373268</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="16">
+    <row r="236" spans="2:12" ht="14.5">
       <c r="B236" s="9"/>
       <c r="F236" s="19" t="s">
         <v>17</v>
@@ -27053,7 +26290,7 @@
     </row>
     <row r="237" spans="2:12">
       <c r="B237" s="357" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F237" s="29">
         <f>SUM(F234:F235)</f>
@@ -27095,7 +26332,7 @@
     </row>
     <row r="239" spans="2:12">
       <c r="B239" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G239" s="157"/>
       <c r="H239" s="157"/>
@@ -27115,7 +26352,7 @@
     </row>
     <row r="241" spans="2:12">
       <c r="B241" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F241" s="358">
         <f t="shared" ref="F241:L241" si="100">E127</f>
@@ -27148,7 +26385,7 @@
     </row>
     <row r="242" spans="2:12">
       <c r="B242" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F242" s="22">
         <f t="shared" ref="F242:L242" si="101">F197</f>
@@ -27179,7 +26416,7 @@
         <v>8718.8002930897565</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="16">
+    <row r="243" spans="2:12" ht="14.5">
       <c r="B243" s="9"/>
       <c r="F243" s="19" t="s">
         <v>17</v>
@@ -27205,7 +26442,7 @@
     </row>
     <row r="244" spans="2:12">
       <c r="B244" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F244" s="22">
         <f>SUM(F241:F243)</f>
@@ -27238,7 +26475,7 @@
     </row>
     <row r="245" spans="2:12">
       <c r="B245" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F245" s="22">
         <f>MAX(F237-F244,0)</f>
@@ -27269,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="16">
+    <row r="246" spans="2:12" ht="14.5">
       <c r="B246" s="9"/>
       <c r="F246" s="19" t="s">
         <v>17</v>
@@ -27295,7 +26532,7 @@
     </row>
     <row r="247" spans="2:12">
       <c r="B247" s="357" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F247" s="2">
         <f>SUM(F244:F245)</f>
@@ -27337,7 +26574,7 @@
     </row>
     <row r="249" spans="2:12">
       <c r="B249" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F249" s="56">
         <f>ABS(F247-F237)</f>
@@ -27415,7 +26652,7 @@
       <c r="E255"/>
       <c r="F255"/>
       <c r="G255" s="237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H255" s="162"/>
       <c r="I255" s="257">
@@ -27434,7 +26671,7 @@
       <c r="E256"/>
       <c r="F256"/>
       <c r="G256" s="237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H256" s="162"/>
       <c r="I256" s="208">
@@ -27453,7 +26690,7 @@
       <c r="E257"/>
       <c r="F257"/>
       <c r="G257" s="237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H257" s="162"/>
       <c r="I257" s="265">
@@ -27520,17 +26757,17 @@
       <c r="J260"/>
       <c r="K260"/>
       <c r="M260" s="262" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N260" s="168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O260" s="168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P260" s="263"/>
     </row>
-    <row r="261" spans="2:16" ht="16">
+    <row r="261" spans="2:16" ht="15.5">
       <c r="B261" s="411" t="s">
         <v>196</v>
       </c>
@@ -27551,7 +26788,7 @@
       <c r="J261"/>
       <c r="K261"/>
       <c r="L261" s="168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M261" s="259">
         <v>0.1</v>
@@ -27581,7 +26818,7 @@
       <c r="J262"/>
       <c r="K262"/>
       <c r="L262" s="262" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M262" s="264">
         <v>0.08</v>
@@ -27607,7 +26844,7 @@
       <c r="J263"/>
       <c r="K263"/>
     </row>
-    <row r="264" spans="2:16" ht="16">
+    <row r="264" spans="2:16" ht="15.5">
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
@@ -27624,11 +26861,11 @@
       <c r="J264"/>
       <c r="K264"/>
       <c r="L264" s="347" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M264" s="348"/>
       <c r="N264" s="157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="265" spans="2:16">
@@ -27637,7 +26874,7 @@
     <row r="266" spans="2:16">
       <c r="L266" s="360"/>
     </row>
-    <row r="269" spans="2:16" ht="18">
+    <row r="269" spans="2:16" ht="17.5">
       <c r="B269" s="66" t="s">
         <v>110</v>
       </c>
@@ -27703,7 +26940,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="272" spans="2:16">
+    <row r="272" spans="2:16" ht="13.5">
       <c r="B272" s="75"/>
       <c r="C272" s="76"/>
       <c r="D272" s="76"/>
@@ -27739,7 +26976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="18">
+    <row r="273" spans="2:12" ht="17.5">
       <c r="B273" s="79" t="s">
         <v>111</v>
       </c>
@@ -27754,7 +26991,7 @@
       <c r="K273" s="111"/>
       <c r="L273" s="113"/>
     </row>
-    <row r="274" spans="2:12" ht="18">
+    <row r="274" spans="2:12" ht="17.5">
       <c r="B274" s="80"/>
       <c r="C274" s="70"/>
       <c r="D274" s="70"/>
@@ -27839,7 +27076,7 @@
         <v>4133.9566646352096</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="16">
+    <row r="277" spans="2:12" ht="14.5">
       <c r="B277" s="81"/>
       <c r="C277" s="82"/>
       <c r="D277" s="82"/>
@@ -27938,7 +27175,7 @@
         <v>-8494.4315026750883</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="16">
+    <row r="280" spans="2:12" ht="14.5">
       <c r="B280" s="81"/>
       <c r="C280" s="82"/>
       <c r="D280" s="82"/>
@@ -28075,7 +27312,7 @@
         <v>-276.22242589035523</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="16">
+    <row r="284" spans="2:12" ht="14.5">
       <c r="B284" s="81"/>
       <c r="C284" s="82"/>
       <c r="D284" s="82"/>
@@ -28138,7 +27375,7 @@
         <v>8902.7432482560489</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="18">
+    <row r="286" spans="2:12" ht="17.5">
       <c r="B286" s="90"/>
       <c r="C286" s="82"/>
       <c r="D286" s="82"/>
@@ -28151,7 +27388,7 @@
       <c r="K286" s="111"/>
       <c r="L286" s="113"/>
     </row>
-    <row r="287" spans="2:12" ht="18">
+    <row r="287" spans="2:12" ht="17.5">
       <c r="B287" s="80" t="s">
         <v>120</v>
       </c>
@@ -28166,7 +27403,7 @@
       <c r="K287" s="111"/>
       <c r="L287" s="113"/>
     </row>
-    <row r="288" spans="2:12" ht="18">
+    <row r="288" spans="2:12" ht="17.5">
       <c r="B288" s="80"/>
       <c r="C288" s="70"/>
       <c r="D288" s="70"/>
@@ -28179,7 +27416,7 @@
       <c r="K288" s="111"/>
       <c r="L288" s="113"/>
     </row>
-    <row r="289" spans="2:12" ht="18">
+    <row r="289" spans="2:12" ht="17.5">
       <c r="B289" s="92" t="s">
         <v>121</v>
       </c>
@@ -28194,7 +27431,7 @@
       <c r="K289" s="111"/>
       <c r="L289" s="113"/>
     </row>
-    <row r="290" spans="2:12" ht="18">
+    <row r="290" spans="2:12" ht="17.5">
       <c r="B290" s="81" t="s">
         <v>122</v>
       </c>
@@ -28211,7 +27448,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="18">
+    <row r="291" spans="2:12" ht="17.5">
       <c r="B291" s="81" t="s">
         <v>123</v>
       </c>
@@ -28229,7 +27466,7 @@
         <v>9169.8255457037303</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="18">
+    <row r="292" spans="2:12" ht="17.5">
       <c r="B292" s="81" t="s">
         <v>124</v>
       </c>
@@ -28246,7 +27483,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="18">
+    <row r="293" spans="2:12" ht="17.5">
       <c r="B293" s="81" t="s">
         <v>125</v>
       </c>
@@ -28264,7 +27501,7 @@
         <v>130997.50779576757</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="18">
+    <row r="294" spans="2:12" ht="17.5">
       <c r="B294" s="81" t="s">
         <v>126</v>
       </c>
@@ -28282,7 +27519,7 @@
         <v>5.4816022912663742</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="18">
+    <row r="295" spans="2:12" ht="17.5">
       <c r="B295" s="90"/>
       <c r="C295" s="82"/>
       <c r="D295" s="82"/>
@@ -28295,7 +27532,7 @@
       <c r="K295" s="111"/>
       <c r="L295" s="113"/>
     </row>
-    <row r="296" spans="2:12" ht="18">
+    <row r="296" spans="2:12" ht="17.5">
       <c r="B296" s="93" t="s">
         <v>127</v>
       </c>
@@ -28310,7 +27547,7 @@
       <c r="K296" s="111"/>
       <c r="L296" s="113"/>
     </row>
-    <row r="297" spans="2:12" ht="18">
+    <row r="297" spans="2:12" ht="17.5">
       <c r="B297" s="81" t="s">
         <v>119</v>
       </c>
@@ -28361,7 +27598,7 @@
         <v>4568.5149723662007</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="16">
+    <row r="299" spans="2:12" ht="14.5">
       <c r="B299" s="90"/>
       <c r="C299" s="82"/>
       <c r="D299" s="82"/>
@@ -28840,7 +28077,7 @@
     <row r="319" spans="2:12">
       <c r="F319" s="158"/>
     </row>
-    <row r="320" spans="2:12" ht="27" thickBot="1">
+    <row r="320" spans="2:12" ht="24" thickBot="1">
       <c r="B320" s="131" t="s">
         <v>165</v>
       </c>
@@ -28855,7 +28092,7 @@
       <c r="K320" s="133"/>
       <c r="L320" s="133"/>
     </row>
-    <row r="321" spans="2:26" ht="14" thickTop="1">
+    <row r="321" spans="2:26" ht="13.5" thickTop="1">
       <c r="B321" s="135"/>
       <c r="C321" s="135"/>
       <c r="D321" s="135"/>
@@ -28960,7 +28197,7 @@
       <c r="K328" s="135"/>
       <c r="L328" s="135"/>
       <c r="V328" s="135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="329" spans="2:26">
@@ -28977,7 +28214,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="330" spans="2:26" ht="14" thickBot="1">
+    <row r="330" spans="2:26" ht="13.5" thickBot="1">
       <c r="B330" s="131" t="s">
         <v>145</v>
       </c>
@@ -28993,13 +28230,13 @@
       <c r="L330" s="134"/>
       <c r="S330" s="33"/>
       <c r="V330" s="157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z330" s="174">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="331" spans="2:26" ht="14" thickTop="1">
+    <row r="331" spans="2:26" ht="13.5" thickTop="1">
       <c r="B331" s="135"/>
       <c r="C331" s="135"/>
       <c r="D331" s="135"/>
@@ -29012,7 +28249,7 @@
       <c r="K331" s="135"/>
       <c r="L331" s="135"/>
       <c r="V331" s="135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W331" s="135"/>
       <c r="X331" s="135"/>
@@ -29034,7 +28271,7 @@
       <c r="K332" s="135"/>
       <c r="L332" s="135"/>
       <c r="V332" s="135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W332" s="135"/>
       <c r="X332" s="135"/>
@@ -29056,7 +28293,7 @@
       <c r="K333" s="135"/>
       <c r="L333" s="135"/>
       <c r="V333" s="135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W333" s="135"/>
       <c r="X333" s="135"/>
@@ -29115,13 +28352,13 @@
       <c r="Q335" s="182"/>
       <c r="R335" s="182"/>
       <c r="V335" s="157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z335" s="174">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="336" spans="2:26" ht="29">
+    <row r="336" spans="2:26" ht="26.5">
       <c r="B336" s="140" t="s">
         <v>146</v>
       </c>
@@ -29290,7 +28527,7 @@
         <v>14.011229979979065</v>
       </c>
     </row>
-    <row r="340" spans="2:21" ht="14" thickBot="1">
+    <row r="340" spans="2:21" ht="13.5" thickBot="1">
       <c r="B340" s="149" t="s">
         <v>154</v>
       </c>
@@ -29340,7 +28577,7 @@
         <v>15.078009428709807</v>
       </c>
     </row>
-    <row r="341" spans="2:21" ht="14" thickTop="1">
+    <row r="341" spans="2:21" ht="13.5" thickTop="1">
       <c r="B341" s="151" t="s">
         <v>155</v>
       </c>
@@ -29472,7 +28709,7 @@
       <c r="T349" s="433"/>
       <c r="U349" s="433"/>
     </row>
-    <row r="350" spans="2:21" ht="26">
+    <row r="350" spans="2:21" ht="23.5">
       <c r="B350" s="140" t="s">
         <v>146</v>
       </c>
@@ -29520,7 +28757,7 @@
       </c>
       <c r="E353" s="148"/>
     </row>
-    <row r="354" spans="2:9" ht="14" thickBot="1">
+    <row r="354" spans="2:9" ht="13.5" thickBot="1">
       <c r="B354" s="149" t="s">
         <v>154</v>
       </c>
@@ -29532,7 +28769,7 @@
       <c r="E354" s="194"/>
       <c r="H354" s="190"/>
     </row>
-    <row r="355" spans="2:9" ht="14" thickTop="1">
+    <row r="355" spans="2:9" ht="13.5" thickTop="1">
       <c r="B355" s="151" t="s">
         <v>155</v>
       </c>
@@ -29605,7 +28842,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="30.3984375" customWidth="1"/>
     <col min="3" max="4" width="12.796875" customWidth="1"/>
@@ -29616,19 +28853,19 @@
     <col min="23" max="23" width="20.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14" thickBot="1"/>
-    <row r="2" spans="2:10" ht="14" thickBot="1">
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:10" ht="13.5" thickBot="1">
       <c r="B2" s="343" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="344" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" s="344" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="345" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="157"/>
       <c r="G2" s="157"/>
@@ -29647,18 +28884,18 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="28">
+    <row r="4" spans="2:10" ht="26">
       <c r="B4" s="341" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="341" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="342" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" s="342" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="266"/>
       <c r="G4" s="266"/>
@@ -29674,7 +28911,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="326" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>41.66</v>
@@ -29688,7 +28925,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="328" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>67000</v>
@@ -29704,9 +28941,9 @@
       <c r="B8" s="329"/>
       <c r="E8" s="327"/>
     </row>
-    <row r="9" spans="2:10" ht="14" thickBot="1">
+    <row r="9" spans="2:10" ht="13.5" thickBot="1">
       <c r="B9" s="339" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="340"/>
       <c r="D9" s="340"/>
@@ -29714,7 +28951,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="326" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10">
         <v>7.11</v>
@@ -29728,7 +28965,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="326" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11">
         <v>1.33</v>
@@ -29742,7 +28979,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="326" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12">
         <v>3.65</v>
@@ -29758,9 +28995,9 @@
       <c r="B13" s="329"/>
       <c r="E13" s="327"/>
     </row>
-    <row r="14" spans="2:10" ht="14" thickBot="1">
+    <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="339" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="340"/>
       <c r="D14" s="340"/>
@@ -29768,7 +29005,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="326" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15">
         <v>1.28</v>
@@ -29782,7 +29019,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="326" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16">
         <v>0.96</v>
@@ -29798,9 +29035,9 @@
       <c r="B17" s="329"/>
       <c r="E17" s="327"/>
     </row>
-    <row r="18" spans="2:5" ht="14" thickBot="1">
+    <row r="18" spans="2:5" ht="13.5" thickBot="1">
       <c r="B18" s="339" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="340"/>
       <c r="D18" s="340"/>
@@ -29808,7 +29045,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="326" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="204">
         <v>0.39779999999999999</v>
@@ -29822,7 +29059,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="326" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="204">
         <v>0.18579999999999999</v>
@@ -29836,7 +29073,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="326" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21">
         <v>21.44</v>
@@ -29850,7 +29087,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="326" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22">
         <v>8.92</v>
@@ -29866,9 +29103,9 @@
       <c r="B23" s="329"/>
       <c r="E23" s="327"/>
     </row>
-    <row r="24" spans="2:5" ht="14" thickBot="1">
+    <row r="24" spans="2:5" ht="13.5" thickBot="1">
       <c r="B24" s="339" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="340"/>
       <c r="D24" s="340"/>
@@ -29876,7 +29113,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="326" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25">
         <v>0.14000000000000001</v>
@@ -29890,7 +29127,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="326" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26">
         <v>0.35</v>
@@ -29906,9 +29143,9 @@
       <c r="B27" s="329"/>
       <c r="E27" s="327"/>
     </row>
-    <row r="28" spans="2:5" ht="14" thickBot="1">
+    <row r="28" spans="2:5" ht="13.5" thickBot="1">
       <c r="B28" s="339" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="340"/>
       <c r="D28" s="340"/>
@@ -29916,7 +29153,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="326" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29">
         <v>5.34</v>
@@ -29930,7 +29167,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="333" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="334">
         <v>0.46</v>
@@ -29944,70 +29181,70 @@
     </row>
     <row r="34" spans="1:23">
       <c r="B34" s="312" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="290"/>
-      <c r="D34" s="466" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="466"/>
-      <c r="F34" s="466"/>
-      <c r="G34" s="466"/>
-      <c r="H34" s="466"/>
+      <c r="D34" s="462" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="462"/>
+      <c r="F34" s="462"/>
+      <c r="G34" s="462"/>
+      <c r="H34" s="462"/>
       <c r="I34" s="236"/>
       <c r="J34" s="290"/>
-      <c r="K34" s="466" t="s">
-        <v>313</v>
-      </c>
-      <c r="L34" s="466"/>
-      <c r="M34" s="466"/>
-      <c r="N34" s="466"/>
+      <c r="K34" s="462" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" s="462"/>
+      <c r="M34" s="462"/>
+      <c r="N34" s="462"/>
       <c r="O34" s="291"/>
       <c r="P34" s="290"/>
-      <c r="R34" s="466" t="s">
-        <v>283</v>
-      </c>
-      <c r="S34" s="466"/>
-      <c r="T34" s="466"/>
-      <c r="U34" s="466"/>
+      <c r="R34" s="462" t="s">
+        <v>282</v>
+      </c>
+      <c r="S34" s="462"/>
+      <c r="T34" s="462"/>
+      <c r="U34" s="462"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="E35" s="461" t="s">
-        <v>315</v>
-      </c>
-      <c r="F35" s="461"/>
-      <c r="G35" s="461"/>
-      <c r="H35" s="461"/>
-      <c r="I35" s="461"/>
-      <c r="J35" s="461"/>
-      <c r="K35" s="461"/>
-      <c r="L35" s="461"/>
-      <c r="M35" s="461"/>
-    </row>
-    <row r="36" spans="1:23" ht="42">
+      <c r="E35" s="463" t="s">
+        <v>314</v>
+      </c>
+      <c r="F35" s="463"/>
+      <c r="G35" s="463"/>
+      <c r="H35" s="463"/>
+      <c r="I35" s="463"/>
+      <c r="J35" s="463"/>
+      <c r="K35" s="463"/>
+      <c r="L35" s="463"/>
+      <c r="M35" s="463"/>
+    </row>
+    <row r="36" spans="1:23" ht="26">
       <c r="B36" s="297" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="235" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="235" t="s">
+      <c r="D36" s="298" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="298" t="s">
+      <c r="E36" s="292" t="s">
         <v>274</v>
       </c>
-      <c r="E36" s="292" t="s">
+      <c r="F36" s="235" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="235" t="s">
+      <c r="G36" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="235" t="s">
+      <c r="H36" s="292" t="s">
         <v>277</v>
       </c>
-      <c r="H36" s="292" t="s">
-        <v>278</v>
-      </c>
       <c r="J36" s="293" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K36" s="235" t="s">
         <v>3</v>
@@ -30016,34 +29253,34 @@
         <v>10</v>
       </c>
       <c r="M36" s="235" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N36" s="293" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" s="293" t="s">
         <v>310</v>
       </c>
-      <c r="O36" s="293" t="s">
-        <v>311</v>
-      </c>
       <c r="P36" s="292" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="267"/>
       <c r="R36" s="235" t="s">
+        <v>280</v>
+      </c>
+      <c r="S36" s="235" t="s">
+        <v>248</v>
+      </c>
+      <c r="T36" s="235" t="s">
         <v>281</v>
       </c>
-      <c r="S36" s="235" t="s">
-        <v>249</v>
-      </c>
-      <c r="T36" s="235" t="s">
-        <v>282</v>
-      </c>
       <c r="U36" s="292" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="465" t="s">
-        <v>289</v>
+      <c r="A37" s="461" t="s">
+        <v>288</v>
       </c>
       <c r="B37" s="207"/>
       <c r="C37" s="209"/>
@@ -30059,12 +29296,12 @@
       <c r="U37" s="162"/>
     </row>
     <row r="38" spans="1:23" ht="13" customHeight="1">
-      <c r="A38" s="465"/>
+      <c r="A38" s="461"/>
       <c r="B38" s="294" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="169" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38">
         <v>12.18</v>
@@ -30120,13 +29357,13 @@
       </c>
       <c r="W38" s="204"/>
     </row>
-    <row r="39" spans="1:23" ht="14">
-      <c r="A39" s="465"/>
+    <row r="39" spans="1:23">
+      <c r="A39" s="461"/>
       <c r="B39" s="295" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="169" t="s">
         <v>252</v>
-      </c>
-      <c r="C39" s="169" t="s">
-        <v>253</v>
       </c>
       <c r="D39">
         <v>63</v>
@@ -30181,13 +29418,13 @@
         <v>0.94605263157894748</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14">
-      <c r="A40" s="465"/>
+    <row r="40" spans="1:23">
+      <c r="A40" s="461"/>
       <c r="B40" s="296" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="299" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D40" s="284">
         <v>57.04</v>
@@ -30268,9 +29505,9 @@
       <c r="Q43" s="204"/>
       <c r="U43" s="34"/>
     </row>
-    <row r="44" spans="1:23" ht="14">
+    <row r="44" spans="1:23">
       <c r="B44" s="313" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" s="304"/>
       <c r="D44" s="304"/>
@@ -30304,9 +29541,9 @@
       </c>
       <c r="U44" s="321"/>
     </row>
-    <row r="45" spans="1:23" ht="14">
+    <row r="45" spans="1:23">
       <c r="B45" s="314" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" s="307"/>
       <c r="D45" s="307"/>
@@ -30340,9 +29577,9 @@
       </c>
       <c r="U45" s="321"/>
     </row>
-    <row r="46" spans="1:23" ht="14">
+    <row r="46" spans="1:23">
       <c r="B46" s="314" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" s="307"/>
       <c r="D46" s="307"/>
@@ -30376,9 +29613,9 @@
       </c>
       <c r="U46" s="321"/>
     </row>
-    <row r="47" spans="1:23" ht="14">
+    <row r="47" spans="1:23">
       <c r="B47" s="383" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C47" s="384"/>
       <c r="D47" s="307"/>
@@ -30412,9 +29649,9 @@
       </c>
       <c r="U47" s="322"/>
     </row>
-    <row r="48" spans="1:23" ht="14">
+    <row r="48" spans="1:23">
       <c r="B48" s="380" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="309"/>
       <c r="D48" s="381"/>
@@ -30450,9 +29687,9 @@
       <c r="F49" s="157"/>
       <c r="G49" s="157"/>
     </row>
-    <row r="51" spans="2:19" ht="14">
+    <row r="51" spans="2:19">
       <c r="B51" s="310" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C51" s="311" t="s">
         <v>156</v>
@@ -30461,7 +29698,7 @@
     </row>
     <row r="52" spans="2:19">
       <c r="B52" s="311" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C52" s="363">
         <f>N38*R48</f>
@@ -30470,7 +29707,7 @@
     </row>
     <row r="53" spans="2:19">
       <c r="B53" s="311" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C53" s="363">
         <f>O38*S48</f>
@@ -30479,7 +29716,7 @@
     </row>
     <row r="54" spans="2:19">
       <c r="B54" s="311" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" s="363">
         <f>((L38*T48)-G38+J38)/E38</f>
@@ -30488,7 +29725,7 @@
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="363">
         <f>D38*U38</f>
@@ -30500,7 +29737,7 @@
     </row>
     <row r="57" spans="2:19" ht="16">
       <c r="B57" s="311" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C57" s="363">
         <f>'modelling and valuation'!C308</f>
@@ -30525,7 +29762,7 @@
     </row>
     <row r="58" spans="2:19" ht="16">
       <c r="B58" s="311" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C58" s="363">
         <f>'modelling and valuation'!C346</f>
@@ -30550,7 +29787,7 @@
     </row>
     <row r="59" spans="2:19" ht="16">
       <c r="B59" s="311" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C59" s="363">
         <f>'modelling and valuation'!C358</f>
@@ -30634,7 +29871,7 @@
     </row>
     <row r="61" spans="2:19">
       <c r="B61" s="235" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C61" s="268">
         <f>AVERAGE(H69:H71)</f>
@@ -30679,7 +29916,7 @@
     </row>
     <row r="62" spans="2:19">
       <c r="B62" s="235" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C62" s="268">
         <f>AVERAGE(H75:H77)</f>
@@ -30762,77 +29999,77 @@
     </row>
     <row r="64" spans="2:19">
       <c r="B64" s="413" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="235" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C65" s="235" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F65" s="215"/>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="235" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C66" s="235" t="s">
-        <v>400</v>
-      </c>
-      <c r="F66" s="461" t="s">
-        <v>338</v>
-      </c>
-      <c r="G66" s="461"/>
-      <c r="H66" s="461"/>
-      <c r="I66" s="461"/>
-      <c r="J66" s="461"/>
+        <v>399</v>
+      </c>
+      <c r="F66" s="463" t="s">
+        <v>337</v>
+      </c>
+      <c r="G66" s="463"/>
+      <c r="H66" s="463"/>
+      <c r="I66" s="463"/>
+      <c r="J66" s="463"/>
       <c r="K66" s="236"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="235" t="s">
+        <v>400</v>
+      </c>
+      <c r="C67" s="235" t="s">
         <v>401</v>
       </c>
-      <c r="C67" s="235" t="s">
-        <v>402</v>
-      </c>
-      <c r="F67" s="462" t="s">
-        <v>393</v>
-      </c>
-      <c r="G67" s="462"/>
-      <c r="H67" s="462"/>
-      <c r="I67" s="462"/>
-      <c r="J67" s="462"/>
+      <c r="F67" s="464" t="s">
+        <v>392</v>
+      </c>
+      <c r="G67" s="464"/>
+      <c r="H67" s="464"/>
+      <c r="I67" s="464"/>
+      <c r="J67" s="464"/>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="302"/>
       <c r="F68" s="235" t="s">
+        <v>338</v>
+      </c>
+      <c r="G68" s="235" t="s">
         <v>339</v>
       </c>
-      <c r="G68" s="235" t="s">
+      <c r="H68" s="235" t="s">
         <v>340</v>
       </c>
-      <c r="H68" s="235" t="s">
-        <v>341</v>
-      </c>
       <c r="I68" s="235" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J68" s="235" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K68" s="302"/>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="373" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="C69" s="235" t="s">
+      <c r="D69" s="235" t="s">
         <v>348</v>
-      </c>
-      <c r="D69" s="235" t="s">
-        <v>349</v>
       </c>
       <c r="F69" s="365">
         <v>43101</v>
@@ -30852,10 +30089,10 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="235" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C70" s="372" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D70" s="371">
         <v>15.9</v>
@@ -30878,10 +30115,10 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="235" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C71" s="368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D71" s="216">
         <v>18.71</v>
@@ -30907,29 +30144,29 @@
       <c r="G72" s="364"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="F73" s="462" t="s">
-        <v>395</v>
-      </c>
-      <c r="G73" s="462"/>
-      <c r="H73" s="462"/>
-      <c r="I73" s="462"/>
-      <c r="J73" s="462"/>
+      <c r="F73" s="464" t="s">
+        <v>394</v>
+      </c>
+      <c r="G73" s="464"/>
+      <c r="H73" s="464"/>
+      <c r="I73" s="464"/>
+      <c r="J73" s="464"/>
     </row>
     <row r="74" spans="2:11">
       <c r="F74" s="235" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74" s="235" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="235" t="s">
-        <v>340</v>
-      </c>
       <c r="H74" s="235" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I74" s="235" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J74" s="235" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -30985,21 +30222,21 @@
     </row>
     <row r="79" spans="2:11">
       <c r="G79" s="235" t="s">
+        <v>285</v>
+      </c>
+      <c r="H79" s="235" t="s">
+        <v>289</v>
+      </c>
+      <c r="I79" s="235" t="s">
+        <v>342</v>
+      </c>
+      <c r="J79" s="235" t="s">
         <v>286</v>
-      </c>
-      <c r="H79" s="235" t="s">
-        <v>290</v>
-      </c>
-      <c r="I79" s="235" t="s">
-        <v>343</v>
-      </c>
-      <c r="J79" s="235" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="F80" s="370" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G80" s="206">
         <f>MAX(J69:J71,J75:J77)</f>
@@ -31020,23 +30257,23 @@
     </row>
     <row r="82" spans="5:10">
       <c r="G82" s="373" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H82" s="374"/>
       <c r="I82" s="235" t="s">
+        <v>347</v>
+      </c>
+      <c r="J82" s="235" t="s">
         <v>348</v>
       </c>
-      <c r="J82" s="235" t="s">
+    </row>
+    <row r="83" spans="5:10">
+      <c r="G83" s="466" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="83" spans="5:10">
-      <c r="G83" s="464" t="s">
-        <v>350</v>
-      </c>
-      <c r="H83" s="464"/>
+      <c r="H83" s="466"/>
       <c r="I83" s="372" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J83" s="371">
         <v>15.9</v>
@@ -31044,11 +30281,11 @@
     </row>
     <row r="84" spans="5:10">
       <c r="G84" s="439" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H84" s="439"/>
       <c r="I84" s="368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J84" s="216">
         <v>18.71</v>
@@ -31056,22 +30293,22 @@
     </row>
     <row r="87" spans="5:10">
       <c r="E87" s="447"/>
-      <c r="F87" s="463"/>
+      <c r="F87" s="465"/>
       <c r="G87" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="E35:M35"/>
     <mergeCell ref="F66:J66"/>
     <mergeCell ref="F67:J67"/>
     <mergeCell ref="F73:J73"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="G84:H84"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="E35:M35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31086,25 +30323,25 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="3:6">
       <c r="D11" s="297" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="E11" s="235" t="s">
+      <c r="F11" s="426" t="s">
         <v>411</v>
-      </c>
-      <c r="F11" s="426" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="246" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D12" s="300">
         <v>11.52</v>
@@ -31119,7 +30356,7 @@
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="424" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D13">
         <v>15.64</v>
@@ -31134,7 +30371,7 @@
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="424" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14">
         <v>11.1</v>
@@ -31149,7 +30386,7 @@
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="424" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D15">
         <v>17.399999999999999</v>
@@ -31162,9 +30399,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="14">
+    <row r="16" spans="3:6">
       <c r="C16" s="425" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D16">
         <v>14.29</v>
@@ -31179,7 +30416,7 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="424" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D17">
         <v>19.829999999999998</v>
@@ -31194,7 +30431,7 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="424" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D18">
         <v>17.3</v>
@@ -31209,7 +30446,7 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="245" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D19" s="284">
         <v>11.4</v>
@@ -31256,32 +30493,32 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="16">
+    <row r="3" spans="2:7" ht="15.5">
       <c r="B3" s="395" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" s="395" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="395" t="s">
         <v>385</v>
-      </c>
-      <c r="D3" s="395" t="s">
-        <v>386</v>
       </c>
       <c r="E3" s="375"/>
       <c r="F3" s="395" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" s="406" t="s">
         <v>357</v>
       </c>
-      <c r="G3" s="406" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="16">
+    </row>
+    <row r="4" spans="2:7" ht="15.5">
       <c r="B4" s="396">
         <v>4.9800000000000004</v>
       </c>
@@ -31299,7 +30536,7 @@
         <v>5.7666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16">
+    <row r="5" spans="2:7" ht="15.5">
       <c r="B5" s="396">
         <v>5.12</v>
       </c>
@@ -31317,7 +30554,7 @@
         <v>6.4033333333333333</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16">
+    <row r="6" spans="2:7" ht="15.5">
       <c r="B6" s="396">
         <v>5.48</v>
       </c>
@@ -31335,7 +30572,7 @@
         <v>6.7666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16">
+    <row r="7" spans="2:7" ht="15.5">
       <c r="B7" s="396">
         <v>5.83</v>
       </c>
@@ -31353,7 +30590,7 @@
         <v>7.086666666666666</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16">
+    <row r="8" spans="2:7" ht="15.5">
       <c r="B8" s="396">
         <v>2.75</v>
       </c>
@@ -31371,7 +30608,7 @@
         <v>4.5500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16">
+    <row r="9" spans="2:7" ht="15.5">
       <c r="B9" s="396">
         <v>6.85</v>
       </c>
@@ -31389,7 +30626,7 @@
         <v>6.0966666666666667</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16">
+    <row r="10" spans="2:7" ht="15.5">
       <c r="B10" s="396">
         <v>5.17</v>
       </c>
@@ -31407,7 +30644,7 @@
         <v>7.0133333333333328</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16">
+    <row r="11" spans="2:7" ht="15.5">
       <c r="B11" s="398">
         <v>3.84</v>
       </c>
@@ -31425,7 +30662,7 @@
         <v>5.8599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16">
+    <row r="12" spans="2:7" ht="15.5">
       <c r="B12" s="375"/>
       <c r="C12" s="375"/>
       <c r="D12" s="375"/>
@@ -31433,7 +30670,7 @@
       <c r="F12" s="375"/>
       <c r="G12" s="376"/>
     </row>
-    <row r="13" spans="2:7" ht="16">
+    <row r="13" spans="2:7" ht="15.5">
       <c r="B13" s="375"/>
       <c r="C13" s="375"/>
       <c r="D13" s="375"/>
@@ -31441,7 +30678,7 @@
       <c r="F13" s="375"/>
       <c r="G13" s="376"/>
     </row>
-    <row r="14" spans="2:7" ht="16">
+    <row r="14" spans="2:7" ht="15.5">
       <c r="B14" s="375"/>
       <c r="C14" s="375"/>
       <c r="D14" s="375"/>
@@ -31449,7 +30686,7 @@
       <c r="F14" s="375"/>
       <c r="G14" s="376"/>
     </row>
-    <row r="15" spans="2:7" ht="16">
+    <row r="15" spans="2:7" ht="15.5">
       <c r="B15" s="375"/>
       <c r="C15" s="375"/>
       <c r="D15" s="375"/>
@@ -31457,7 +30694,7 @@
       <c r="F15" s="375"/>
       <c r="G15" s="376"/>
     </row>
-    <row r="16" spans="2:7" ht="16">
+    <row r="16" spans="2:7" ht="15.5">
       <c r="B16" s="375"/>
       <c r="C16" s="375"/>
       <c r="D16" s="375"/>
@@ -31465,25 +30702,25 @@
       <c r="F16" s="375"/>
       <c r="G16" s="376"/>
     </row>
-    <row r="17" spans="2:7" ht="16">
+    <row r="17" spans="2:7" ht="15.5">
       <c r="B17" s="395" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" s="395" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" s="395" t="s">
         <v>387</v>
-      </c>
-      <c r="D17" s="395" t="s">
-        <v>388</v>
       </c>
       <c r="E17" s="375"/>
       <c r="F17" s="395" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G17" s="406" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="16">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.5">
       <c r="B18" s="396">
         <v>1.47</v>
       </c>
@@ -31501,7 +30738,7 @@
         <v>1.5166666666666666</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16">
+    <row r="19" spans="2:7" ht="15.5">
       <c r="B19" s="396">
         <v>1.54</v>
       </c>
@@ -31519,7 +30756,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16">
+    <row r="20" spans="2:7" ht="15.5">
       <c r="B20" s="396">
         <v>1.69</v>
       </c>
@@ -31537,7 +30774,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16">
+    <row r="21" spans="2:7" ht="15.5">
       <c r="B21" s="396">
         <v>2.4</v>
       </c>
@@ -31555,7 +30792,7 @@
         <v>2.5366666666666666</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16">
+    <row r="22" spans="2:7" ht="15.5">
       <c r="B22" s="396">
         <v>1.96</v>
       </c>
@@ -31573,7 +30810,7 @@
         <v>2.5533333333333332</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16">
+    <row r="23" spans="2:7" ht="15.5">
       <c r="B23" s="396">
         <v>2.15</v>
       </c>
@@ -31591,7 +30828,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16">
+    <row r="24" spans="2:7" ht="15.5">
       <c r="B24" s="396">
         <v>1.73</v>
       </c>
@@ -31609,7 +30846,7 @@
         <v>2.4466666666666668</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16">
+    <row r="25" spans="2:7" ht="15.5">
       <c r="B25" s="398">
         <v>1.3</v>
       </c>
@@ -31627,7 +30864,7 @@
         <v>2.2366666666666668</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16">
+    <row r="26" spans="2:7" ht="15.5">
       <c r="B26" s="375"/>
       <c r="C26" s="375"/>
       <c r="D26" s="375"/>
@@ -31637,31 +30874,31 @@
     </row>
     <row r="27" spans="2:7" ht="16" customHeight="1">
       <c r="B27" s="467" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C27" s="401"/>
       <c r="D27" s="408"/>
       <c r="E27" s="375"/>
       <c r="F27" s="468" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G27" s="469" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="34" customHeight="1">
       <c r="B28" s="468"/>
       <c r="C28" s="407" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="407" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="375"/>
       <c r="F28" s="468"/>
       <c r="G28" s="469"/>
     </row>
-    <row r="29" spans="2:7" ht="16">
+    <row r="29" spans="2:7" ht="15.5">
       <c r="B29" s="396">
         <v>5.5</v>
       </c>
@@ -31679,7 +30916,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16">
+    <row r="30" spans="2:7" ht="15.5">
       <c r="B30" s="396">
         <v>4.83</v>
       </c>
@@ -31697,7 +30934,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16">
+    <row r="31" spans="2:7" ht="15.5">
       <c r="B31" s="396">
         <v>6.85</v>
       </c>
@@ -31715,7 +30952,7 @@
         <v>6.6166666666666663</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="16">
+    <row r="32" spans="2:7" ht="15.5">
       <c r="B32" s="396">
         <v>4.63</v>
       </c>
@@ -31733,7 +30970,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16">
+    <row r="33" spans="2:7" ht="15.5">
       <c r="B33" s="396">
         <v>2.37</v>
       </c>
@@ -31751,7 +30988,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="16">
+    <row r="34" spans="2:7" ht="15.5">
       <c r="B34" s="396">
         <v>4.17</v>
       </c>
@@ -31769,7 +31006,7 @@
         <v>4.3833333333333329</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="16">
+    <row r="35" spans="2:7" ht="15.5">
       <c r="B35" s="396">
         <v>4.58</v>
       </c>
@@ -31787,7 +31024,7 @@
         <v>5.6466666666666656</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="16">
+    <row r="36" spans="2:7" ht="15.5">
       <c r="B36" s="398">
         <v>3.5</v>
       </c>
@@ -31805,24 +31042,24 @@
         <v>5.2299999999999995</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="16">
+    <row r="52" spans="2:8" ht="15.5">
       <c r="B52" s="235" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C52" s="395" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="206" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="206" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="206" t="s">
         <v>418</v>
       </c>
-      <c r="D52" s="206" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="206" t="s">
-        <v>282</v>
-      </c>
-      <c r="F52" s="206" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="18">
+    </row>
+    <row r="53" spans="2:8" ht="19">
       <c r="B53" s="239">
         <v>2017</v>
       </c>
@@ -31840,7 +31077,7 @@
       </c>
       <c r="H53" s="437"/>
     </row>
-    <row r="54" spans="2:8" ht="18">
+    <row r="54" spans="2:8" ht="19">
       <c r="B54" s="209">
         <f>B53 +1</f>
         <v>2018</v>
@@ -31859,7 +31096,7 @@
       </c>
       <c r="H54" s="437"/>
     </row>
-    <row r="55" spans="2:8" ht="18">
+    <row r="55" spans="2:8" ht="19">
       <c r="B55" s="209">
         <f t="shared" ref="B55:B60" si="0">B54 +1</f>
         <v>2019</v>
@@ -31878,7 +31115,7 @@
       </c>
       <c r="H55" s="437"/>
     </row>
-    <row r="56" spans="2:8" ht="18">
+    <row r="56" spans="2:8" ht="19">
       <c r="B56" s="209">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -31897,7 +31134,7 @@
       </c>
       <c r="H56" s="437"/>
     </row>
-    <row r="57" spans="2:8" ht="18">
+    <row r="57" spans="2:8" ht="19">
       <c r="B57" s="209">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -31916,7 +31153,7 @@
       </c>
       <c r="H57" s="437"/>
     </row>
-    <row r="58" spans="2:8" ht="18">
+    <row r="58" spans="2:8" ht="19">
       <c r="B58" s="209">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -31935,7 +31172,7 @@
       </c>
       <c r="H58" s="437"/>
     </row>
-    <row r="59" spans="2:8" ht="18">
+    <row r="59" spans="2:8" ht="19">
       <c r="B59" s="209">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -31954,7 +31191,7 @@
       </c>
       <c r="H59" s="437"/>
     </row>
-    <row r="60" spans="2:8" ht="18">
+    <row r="60" spans="2:8" ht="19">
       <c r="B60" s="212">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -31993,7 +31230,7 @@
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="12" max="12" width="13.59765625" customWidth="1"/>
     <col min="13" max="13" width="13.796875" bestFit="1" customWidth="1"/>
@@ -32001,32 +31238,32 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:20" ht="15.5">
+      <c r="A3" s="377" t="s">
         <v>361</v>
-      </c>
-      <c r="L1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="14" thickBot="1"/>
-    <row r="3" spans="1:20" ht="16">
-      <c r="A3" s="377" t="s">
-        <v>362</v>
       </c>
       <c r="B3" s="377"/>
       <c r="L3" s="377" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M3" s="377"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4">
         <v>0.70448057854855484</v>
       </c>
       <c r="L4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M4">
         <v>0.90017755327435378</v>
@@ -32034,13 +31271,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5">
         <v>0.49629288555210654</v>
       </c>
       <c r="L5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M5">
         <v>0.8103196274190021</v>
@@ -32048,13 +31285,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6">
         <v>0.41234169981079094</v>
       </c>
       <c r="L6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M6">
         <v>0.77870623198883582</v>
@@ -32062,77 +31299,77 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7">
         <v>0.95190930285304842</v>
       </c>
       <c r="L7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M7">
         <v>0.62300072703559572</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14" thickBot="1">
+    <row r="8" spans="1:20" ht="13.5" thickBot="1">
       <c r="A8" s="378" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="378">
         <v>8</v>
       </c>
       <c r="L8" s="378" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M8" s="378">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14" thickBot="1">
+    <row r="10" spans="1:20" ht="13.5" thickBot="1">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.5">
       <c r="A11" s="379"/>
       <c r="B11" s="379" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="379" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="379" t="s">
+      <c r="D11" s="379" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="379" t="s">
+      <c r="E11" s="379" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="379" t="s">
+      <c r="F11" s="379" t="s">
         <v>372</v>
-      </c>
-      <c r="F11" s="379" t="s">
-        <v>373</v>
       </c>
       <c r="L11" s="379"/>
       <c r="M11" s="379" t="s">
+        <v>368</v>
+      </c>
+      <c r="N11" s="379" t="s">
         <v>369</v>
       </c>
-      <c r="N11" s="379" t="s">
+      <c r="O11" s="379" t="s">
         <v>370</v>
       </c>
-      <c r="O11" s="379" t="s">
+      <c r="P11" s="379" t="s">
         <v>371</v>
       </c>
-      <c r="P11" s="379" t="s">
+      <c r="Q11" s="379" t="s">
         <v>372</v>
-      </c>
-      <c r="Q11" s="379" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -32150,7 +31387,7 @@
         <v>5.1065450661941486E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -32170,7 +31407,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -32182,7 +31419,7 @@
         <v>0.90613132085817671</v>
       </c>
       <c r="L13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M13">
         <v>6</v>
@@ -32194,9 +31431,9 @@
         <v>0.38812990588688084</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14" thickBot="1">
+    <row r="14" spans="1:20" ht="13.5" thickBot="1">
       <c r="A14" s="378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="378">
         <v>7</v>
@@ -32208,7 +31445,7 @@
       <c r="E14" s="378"/>
       <c r="F14" s="378"/>
       <c r="L14" s="378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M14" s="378">
         <v>7</v>
@@ -32220,62 +31457,62 @@
       <c r="P14" s="378"/>
       <c r="Q14" s="378"/>
     </row>
-    <row r="15" spans="1:20" ht="14" thickBot="1"/>
-    <row r="16" spans="1:20" ht="16">
+    <row r="15" spans="1:20" ht="13.5" thickBot="1"/>
+    <row r="16" spans="1:20" ht="15.5">
       <c r="A16" s="379"/>
       <c r="B16" s="379" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="379" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="379" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="379" t="s">
-        <v>366</v>
-      </c>
-      <c r="D16" s="379" t="s">
+      <c r="E16" s="379" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="379" t="s">
+      <c r="F16" s="379" t="s">
         <v>379</v>
       </c>
-      <c r="F16" s="379" t="s">
+      <c r="G16" s="379" t="s">
         <v>380</v>
       </c>
-      <c r="G16" s="379" t="s">
+      <c r="H16" s="379" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="379" t="s">
+      <c r="I16" s="379" t="s">
         <v>382</v>
-      </c>
-      <c r="I16" s="379" t="s">
-        <v>383</v>
       </c>
       <c r="L16" s="379"/>
       <c r="M16" s="379" t="s">
+        <v>376</v>
+      </c>
+      <c r="N16" s="379" t="s">
+        <v>365</v>
+      </c>
+      <c r="O16" s="379" t="s">
         <v>377</v>
       </c>
-      <c r="N16" s="379" t="s">
-        <v>366</v>
-      </c>
-      <c r="O16" s="379" t="s">
+      <c r="P16" s="379" t="s">
         <v>378</v>
       </c>
-      <c r="P16" s="379" t="s">
+      <c r="Q16" s="379" t="s">
         <v>379</v>
       </c>
-      <c r="Q16" s="379" t="s">
+      <c r="R16" s="379" t="s">
         <v>380</v>
       </c>
-      <c r="R16" s="379" t="s">
+      <c r="S16" s="379" t="s">
         <v>381</v>
       </c>
-      <c r="S16" s="379" t="s">
+      <c r="T16" s="379" t="s">
         <v>382</v>
-      </c>
-      <c r="T16" s="379" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17">
         <v>-1.5084045641934658</v>
@@ -32302,7 +31539,7 @@
         <v>5.0955968901545772</v>
       </c>
       <c r="L17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M17">
         <v>-2.105290166841236</v>
@@ -32329,9 +31566,9 @@
         <v>1.157907089115096</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14" thickBot="1">
+    <row r="18" spans="1:20" ht="13.5" thickBot="1">
       <c r="A18" s="378" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B18" s="378">
         <v>1.0513470331739434</v>
@@ -32358,7 +31595,7 @@
         <v>2.1094034133700226</v>
       </c>
       <c r="L18" s="378" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M18" s="378">
         <v>1.2332507446885537</v>
@@ -32387,48 +31624,48 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L22" s="394" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M22" s="394" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N22" s="447" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O22" s="447"/>
       <c r="P22" s="447"/>
       <c r="Q22" s="447"/>
     </row>
-    <row r="23" spans="1:20" ht="14" thickBot="1">
+    <row r="23" spans="1:20" ht="13.5" thickBot="1">
       <c r="L23" s="394" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" s="394" t="s">
+        <v>248</v>
+      </c>
+      <c r="N23" s="447" t="s">
         <v>390</v>
-      </c>
-      <c r="M23" s="394" t="s">
-        <v>249</v>
-      </c>
-      <c r="N23" s="447" t="s">
-        <v>391</v>
       </c>
       <c r="O23" s="447"/>
       <c r="P23" s="447"/>
       <c r="Q23" s="447"/>
     </row>
-    <row r="24" spans="1:20" ht="16">
+    <row r="24" spans="1:20" ht="15.5">
       <c r="A24" s="377" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B24" s="377"/>
       <c r="L24" s="394" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M24" s="394" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N24" s="447" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O24" s="447"/>
       <c r="P24" s="447"/>
@@ -32436,7 +31673,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25">
         <v>0.65801956479106949</v>
@@ -32445,7 +31682,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B26">
         <v>0.43298974764782844</v>
@@ -32453,7 +31690,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B27">
         <v>0.33848803892246648</v>
@@ -32461,46 +31698,46 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28">
         <v>0.29937504998769227</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14" thickBot="1">
+    <row r="29" spans="1:20" ht="13.5" thickBot="1">
       <c r="A29" s="378" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B29" s="378">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14" thickBot="1">
+    <row r="31" spans="1:20" ht="13.5" thickBot="1">
       <c r="A31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="16">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.5">
       <c r="A32" s="379"/>
       <c r="B32" s="379" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" s="379" t="s">
         <v>369</v>
       </c>
-      <c r="C32" s="379" t="s">
+      <c r="D32" s="379" t="s">
         <v>370</v>
       </c>
-      <c r="D32" s="379" t="s">
+      <c r="E32" s="379" t="s">
         <v>371</v>
       </c>
-      <c r="E32" s="379" t="s">
+      <c r="F32" s="379" t="s">
         <v>372</v>
-      </c>
-      <c r="F32" s="379" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -32520,7 +31757,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -32532,9 +31769,9 @@
         <v>8.9625420555133242E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14" thickBot="1">
+    <row r="35" spans="1:9" ht="13.5" thickBot="1">
       <c r="A35" s="378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B35" s="378">
         <v>7</v>
@@ -32546,37 +31783,37 @@
       <c r="E35" s="378"/>
       <c r="F35" s="378"/>
     </row>
-    <row r="36" spans="1:9" ht="14" thickBot="1"/>
-    <row r="37" spans="1:9" ht="16">
+    <row r="36" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="37" spans="1:9" ht="15.5">
       <c r="A37" s="379"/>
       <c r="B37" s="379" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="379" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="379" t="s">
         <v>377</v>
       </c>
-      <c r="C37" s="379" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" s="379" t="s">
+      <c r="E37" s="379" t="s">
         <v>378</v>
       </c>
-      <c r="E37" s="379" t="s">
+      <c r="F37" s="379" t="s">
         <v>379</v>
       </c>
-      <c r="F37" s="379" t="s">
+      <c r="G37" s="379" t="s">
         <v>380</v>
       </c>
-      <c r="G37" s="379" t="s">
+      <c r="H37" s="379" t="s">
         <v>381</v>
       </c>
-      <c r="H37" s="379" t="s">
+      <c r="I37" s="379" t="s">
         <v>382</v>
-      </c>
-      <c r="I37" s="379" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B38">
         <v>0.2943992273693794</v>
@@ -32603,9 +31840,9 @@
         <v>2.0122841521597534</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14" thickBot="1">
+    <row r="39" spans="1:9" ht="13.5" thickBot="1">
       <c r="A39" s="378" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" s="378">
         <v>0.65553260788995948</v>
